--- a/Superintelligence Paths Dangers Strategies.xlsx
+++ b/Superintelligence Paths Dangers Strategies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="585" windowWidth="27555" windowHeight="12120"/>
+    <workbookView xWindow="720" yWindow="645" windowWidth="27555" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -253,10 +252,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$100</c:f>
+              <c:f>Sheet1!$I$2:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20.153846152673047</c:v>
                 </c:pt>
@@ -289,6 +288,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20.960000001655761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.145486727918875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.334285717161507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.145486727918875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,10 +322,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$100</c:f>
+              <c:f>Sheet1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>20.153846152673047</c:v>
                 </c:pt>
@@ -350,6 +358,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20.752118978451751</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.063633135673658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.208586441774145</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.188650278483099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,11 +383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54665728"/>
-        <c:axId val="52542784"/>
+        <c:axId val="143897600"/>
+        <c:axId val="140238144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54665728"/>
+        <c:axId val="143897600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +435,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52542784"/>
+        <c:crossAx val="140238144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -426,7 +443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52542784"/>
+        <c:axId val="140238144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54665728"/>
+        <c:crossAx val="143897600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -805,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,28 +1292,118 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="12">
+        <v>43020.745138888888</v>
+      </c>
+      <c r="B13">
+        <v>390</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43020.78125</v>
+      </c>
+      <c r="D13">
+        <v>416</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13" si="44">C13-A13</f>
+        <v>3.6111111112404615E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="45">D13-B13+1</f>
+        <v>27</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13" si="46">F13/(E13*24*60)</f>
+        <v>0.51923076921217037</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="47">G13*60</f>
+        <v>31.153846152730221</v>
+      </c>
+      <c r="I13" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H13)</f>
+        <v>21.145486727918875</v>
+      </c>
+      <c r="J13" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H13)</f>
+        <v>21.063633135673658</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="12">
+        <v>43021.677083333336</v>
+      </c>
+      <c r="B14">
+        <v>417</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43021.71875</v>
+      </c>
+      <c r="D14">
+        <v>450</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" ref="E14" si="48">C14-A14</f>
+        <v>4.1666666664241347E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="49">D14-B14+1</f>
+        <v>34</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ref="G14" si="50">F14/(E14*24*60)</f>
+        <v>0.56666666669965104</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14" si="51">G14*60</f>
+        <v>34.00000000197906</v>
+      </c>
+      <c r="I14" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H14)</f>
+        <v>21.334285717161507</v>
+      </c>
+      <c r="J14" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H14)</f>
+        <v>21.208586441774145</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="A15" s="12">
+        <v>43022.731944444444</v>
+      </c>
+      <c r="B15">
+        <v>451</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43022.770138888889</v>
+      </c>
+      <c r="D15">
+        <v>508</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" ref="E15" si="52">C15-A15</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="53">D15-B15+1</f>
+        <v>58</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15" si="54">F15/(E15*24*60)</f>
+        <v>1.0545454545231336</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15" si="55">G15*60</f>
+        <v>63.272727271388021</v>
+      </c>
+      <c r="I15" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H15)</f>
+        <v>21.145486727918875</v>
+      </c>
+      <c r="J15" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H15)</f>
+        <v>20.188650278483099</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
@@ -2074,7 +2181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2204,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>389</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2213,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>49.4910941475827</v>
+        <v>64.631043256997458</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2222,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>397</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2124,7 +2231,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>50.508905852417307</v>
+        <v>35.368956743002542</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +2240,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>20.960000001655761</v>
+        <v>21.145486727918875</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2249,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>20.752118978451751</v>
+        <v>20.188650278483099</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2151,7 +2258,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0.20788102320400981</v>
+        <v>0.95683644943577661</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,7 +2267,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>10.586666667502973</v>
+        <v>7.4789380538949706</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2169,7 +2276,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>10.481668237207817</v>
+        <v>7.14051498399275</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2217,15 +2324,15 @@
       </c>
       <c r="F37" s="4">
         <f>MAX(Sheet1!F2:F1000)</f>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G37" s="4">
         <f>MAX(Sheet1!G2:G1000)</f>
-        <v>0.92156862747622381</v>
+        <v>1.0545454545231336</v>
       </c>
       <c r="H37" s="4">
         <f>MAX(Sheet1!H2:H1000)</f>
-        <v>55.294117648573426</v>
+        <v>63.272727271388021</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2242,11 +2349,11 @@
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.62499999995062738</v>
+        <v>0.61951754379357782</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>37.499999997037641</v>
+        <v>37.171052627614671</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2255,19 +2362,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>3.8636363636628215E-2</v>
+        <v>3.86408730160578E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.63126083719944781</v>
+        <v>0.64887943568777728</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>37.875650231966866</v>
+        <v>38.932766141266633</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,11 +2383,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:10:12:00</v>
+        <v>0:12:59:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>385</v>
+        <v>504</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>

--- a/Superintelligence Paths Dangers Strategies.xlsx
+++ b/Superintelligence Paths Dangers Strategies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="645" windowWidth="27555" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="705" windowWidth="27555" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -298,6 +299,21 @@
                 <c:pt idx="13">
                   <c:v>21.145486727918875</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.960000001655761</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.145486727918875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.960000001655761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.549019608029091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.153846152673047</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -368,6 +384,21 @@
                 <c:pt idx="13">
                   <c:v>20.188650278483099</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.128498281703919</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.443107796697408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.196928405418674</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.789652222246495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.727238754353039</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -383,11 +414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143897600"/>
-        <c:axId val="140238144"/>
+        <c:axId val="54311424"/>
+        <c:axId val="53574400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143897600"/>
+        <c:axId val="54311424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +466,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140238144"/>
+        <c:crossAx val="53574400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -443,7 +474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140238144"/>
+        <c:axId val="53574400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143897600"/>
+        <c:crossAx val="54311424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,69 +1436,309 @@
         <v>20.188650278483099</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>43027.659722222219</v>
+      </c>
+      <c r="B16">
+        <v>509</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43027.700694444444</v>
+      </c>
+      <c r="D16">
+        <v>548</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16" si="56">C16-A16</f>
+        <v>4.0972222224809229E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="57">D16-B16+1</f>
+        <v>40</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16" si="58">F16/(E16*24*60)</f>
+        <v>0.67796610165210813</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ref="H16" si="59">G16*60</f>
+        <v>40.677966099126486</v>
+      </c>
+      <c r="I16" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H16)</f>
+        <v>20.960000001655761</v>
+      </c>
+      <c r="J16" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H16)</f>
+        <v>20.128498281703919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>43028.744444444441</v>
+      </c>
+      <c r="B17">
+        <v>549</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43028.78125</v>
+      </c>
+      <c r="D17">
+        <v>574</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" ref="E17" si="60">C17-A17</f>
+        <v>3.680555555911269E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="61">D17-B17+1</f>
+        <v>26</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" ref="G17" si="62">F17/(E17*24*60)</f>
+        <v>0.49056603768843748</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ref="H17" si="63">G17*60</f>
+        <v>29.433962261306249</v>
+      </c>
+      <c r="I17" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H17)</f>
+        <v>21.145486727918875</v>
+      </c>
+      <c r="J17" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H17)</f>
+        <v>20.443107796697408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>43029.711111111108</v>
+      </c>
+      <c r="B18">
+        <v>575</v>
+      </c>
+      <c r="C18" s="12">
+        <v>43029.747916666667</v>
+      </c>
+      <c r="D18">
+        <v>615</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" ref="E18" si="64">C18-A18</f>
+        <v>3.680555555911269E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="65">D18-B18+1</f>
+        <v>41</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ref="G18" si="66">F18/(E18*24*60)</f>
+        <v>0.77358490558561299</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ref="H18" si="67">G18*60</f>
+        <v>46.415094335136779</v>
+      </c>
+      <c r="I18" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H18)</f>
+        <v>20.960000001655761</v>
+      </c>
+      <c r="J18" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H18)</f>
+        <v>20.196928405418674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>43034.574305555558</v>
+      </c>
+      <c r="B19">
+        <v>616</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43034.611805555556</v>
+      </c>
+      <c r="D19">
+        <v>663</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" ref="E19" si="68">C19-A19</f>
+        <v>3.7499999998544808E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="69">D19-B19+1</f>
+        <v>48</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19" si="70">F19/(E19*24*60)</f>
+        <v>0.88888888892338236</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19" si="71">G19*60</f>
+        <v>53.333333335402941</v>
+      </c>
+      <c r="I19" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H19)</f>
+        <v>20.549019608029091</v>
+      </c>
+      <c r="J19" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H19)</f>
+        <v>19.789652222246495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>43041.877083333333</v>
+      </c>
+      <c r="B20">
+        <v>664</v>
+      </c>
+      <c r="C20" s="12">
+        <v>43041.916666666664</v>
+      </c>
+      <c r="D20">
+        <v>703</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" ref="E20" si="72">C20-A20</f>
+        <v>3.9583333331393078E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="73">D20-B20+1</f>
+        <v>40</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20" si="74">F20/(E20*24*60)</f>
+        <v>0.70175438599931017</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20" si="75">G20*60</f>
+        <v>42.105263159958611</v>
+      </c>
+      <c r="I20" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H20)</f>
+        <v>20.153846152673047</v>
+      </c>
+      <c r="J20" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H20)</f>
+        <v>19.727238754353039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>43042.847222222219</v>
+      </c>
+      <c r="B21">
+        <v>704</v>
+      </c>
+      <c r="C21" s="12">
+        <v>43042.885416666664</v>
+      </c>
+      <c r="D21">
+        <v>728</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" ref="E21" si="76">C21-A21</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="77">D21-B21+1</f>
+        <v>25</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ref="G21" si="78">F21/(E21*24*60)</f>
+        <v>0.45454545453583345</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ref="H21" si="79">G21*60</f>
+        <v>27.272727272150007</v>
+      </c>
+      <c r="I21" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H21)</f>
+        <v>20.549019608029091</v>
+      </c>
+      <c r="J21" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H21)</f>
+        <v>20.04342557479875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>43042.894444444442</v>
+      </c>
+      <c r="B22">
+        <v>729</v>
+      </c>
+      <c r="C22" s="12">
+        <v>43042.933333333334</v>
+      </c>
+      <c r="D22">
+        <v>771</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" ref="E22" si="80">C22-A22</f>
+        <v>3.888888889196096E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="81">D22-B22+1</f>
+        <v>43</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22" si="82">F22/(E22*24*60)</f>
+        <v>0.76785714279648509</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22" si="83">G22*60</f>
+        <v>46.071428567789106</v>
+      </c>
+      <c r="I22" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H22)</f>
+        <v>20.153846152673047</v>
+      </c>
+      <c r="J22" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H22)</f>
+        <v>19.877921645571895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>43043.579861111109</v>
+      </c>
+      <c r="B23">
+        <v>772</v>
+      </c>
+      <c r="C23" s="12">
+        <v>43043.599305555559</v>
+      </c>
+      <c r="D23">
+        <v>786</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" ref="E23" si="84">C23-A23</f>
+        <v>1.9444444449618459E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="85">D23-B23+1</f>
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ref="G23" si="86">F23/(E23*24*60)</f>
+        <v>0.53571428557173639</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23" si="87">G23*60</f>
+        <v>32.142857134304187</v>
+      </c>
+      <c r="I23" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H23)</f>
+        <v>20.549019608029091</v>
+      </c>
+      <c r="J23" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H23)</f>
+        <v>20.048431637157567</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -2181,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2475,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>508</v>
+        <v>786</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2484,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>64.631043256997458</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2493,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2231,7 +2502,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>35.368956743002542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2511,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>21.145486727918875</v>
+        <v>20.549019608029091</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2520,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>20.188650278483099</v>
+        <v>20.048431637157567</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2529,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0.95683644943577661</v>
+        <v>0.50058797087152485</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2267,7 +2538,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>7.4789380538949706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,7 +2547,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>7.14051498399275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2299,11 +2570,11 @@
       </c>
       <c r="E36" s="11">
         <f>MIN(Sheet1!E2:E1000)</f>
-        <v>3.5416666665696539E-2</v>
+        <v>1.9444444449618459E-2</v>
       </c>
       <c r="F36" s="4">
         <f>MIN(Sheet1!F2:F1000)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G36" s="4">
         <f>MIN(Sheet1!G2:G1000)</f>
@@ -2345,15 +2616,15 @@
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.61951754379357782</v>
+        <v>0.63749999999423124</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>37.171052627614671</v>
+        <v>38.249999999653866</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2362,19 +2633,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>3.86408730160578E-2</v>
+        <v>3.7689393940209731E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>36</v>
+        <v>35.545454545454547</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.64887943568777728</v>
+        <v>0.65341769556280849</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>38.932766141266633</v>
+        <v>39.20506173376851</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2383,11 +2654,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:12:59:00</v>
+        <v>0:19:54:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>504</v>
+        <v>782</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
